--- a/Data/Molecules_generated_tensor_scaling_0_2.xlsx
+++ b/Data/Molecules_generated_tensor_scaling_0_2.xlsx
@@ -14,1260 +14,1212 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
   <si>
     <t>SMILES_From_Tensor_rotation</t>
   </si>
   <si>
-    <t>CN(C=1SC2=CC=CC=C2)N=1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCNC1)NC2=C(C(N(C)C(N2C)=O)=O)N1</t>
-  </si>
-  <si>
-    <t>CN(CCCC1CCNC)NC2=C(C(N(C)C(N2C)=O)=O)N1</t>
-  </si>
-  <si>
-    <t>CN(CCC=1CCNC=N)C2=C(C(N(C)C(=O)N2C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)NC2=C1CN(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCC2CNCNC)C=C2N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)N2C=C1N(C)C(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)NC=C1CN(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>C=12N=C(NCCN)N(C=1CN(C2=O)C)OC</t>
-  </si>
-  <si>
-    <t>CN(CCCCCN1C=N)C2=C(C(N(C)C(N2C)=O)C)ON1</t>
-  </si>
-  <si>
-    <t>C=1N(C2=C(N=1)ONC(=O)N(C)C2=O)C</t>
-  </si>
-  <si>
-    <t>C123N(C1C=C2CN(C)CN(C)C3=O)O</t>
-  </si>
-  <si>
-    <t>C=12N=C(NCCN)N(C=1CN(C)C2=O)OC</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C=2CN(C)C(N(C)C=2N=C1NCCCN=O)C</t>
-  </si>
-  <si>
-    <t>C1N(C(N(C)C=C1N=C(NCC=O)C=O)C)C=O</t>
-  </si>
-  <si>
-    <t>CN(C(C=C(N(C)C=O)N=C(NCCCCCN)NC)=O)C</t>
-  </si>
-  <si>
-    <t>CN1C=2CN(C)CN(C)C=2N=C1NCCCN=O</t>
-  </si>
-  <si>
-    <t>CN(CCNC=1N(C)C2=C(N=1)C(=O)N(C)CN2C)OC</t>
-  </si>
-  <si>
-    <t>C1N(C2(N(C)C=C1N=C(NCC=O)C2=O)C)OC</t>
-  </si>
-  <si>
-    <t>C1NC(C2=C(N=C(N2C)NCCCCN)N(C)C1=O)=O</t>
-  </si>
-  <si>
-    <t>CN(CCNCN(C)C1=C(C(N(C(N1C)=O)C)=O)N)C</t>
-  </si>
-  <si>
-    <t>CN1C(C=C(N(C)C1=O)N=C(NCCCCCN)NC)=O</t>
-  </si>
-  <si>
-    <t>C1N(C(C=2N(C)C(=NC=2N1C)NCCCNCC)C)N=O</t>
-  </si>
-  <si>
-    <t>C1NC(N(C)C2=C1N=C(NCCCCCN)N2C=O)=O</t>
-  </si>
-  <si>
-    <t>CN(C1C=2NC(=O)N(C)C(N(C)C=2N)=C1SCC)C</t>
-  </si>
-  <si>
-    <t>CN(CC1=C(N=C(N1C)SCCC)N(C)CNC)OO</t>
-  </si>
-  <si>
-    <t>C1NCC=2N(C)C(=NC=2C1=O)NCCCNCCCN=O</t>
-  </si>
-  <si>
-    <t>C1NC(N(C)CCCN(C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCN(C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(=O)N3)=NC=1N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCCC/N=C2/SCC(=O)N2)=NCN(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C(=O)N2C)C=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC=CCCCN=N)C2=C1C(N(C)C(=O)N2C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCCC/N=C1/SCC(=O)N1)=NC=CC(=O)N(C=O)CC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC3=NC4=CC=CC=C4[NH1]3)C=1N(C)C(N2C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCN2C(C3=C(C=CC=C3)C2=O)=O)=NC4=C1C(N(C(=O)N4C)C)=O</t>
+  </si>
+  <si>
+    <t>C1NC(NCCN2C(C3=C(C=CC=C3)C2=O)=O)=NC4=C1C(N(C(=O)N4C)C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCN2C(=O)C3=C(C=CC=C3)C2=O)=NC4=C1C(N(C(N4C)=O)C)=O</t>
+  </si>
+  <si>
+    <t>C=12NC(NCCCNC(CSC(N3CCCC3)=S)=O)=NC=1N(C(N(C2=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>C1NC(NCCNC(CSC(N2CCCC2)=S)=O)C3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(N3)=O)=NC=1N(C)C2=O</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(NCCCNCCCCNCCCN=N)C=2N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)N(C=1)CN=C(NCCCCCCN)NC=1C=O</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(SC(=S)N3CCCC3)=NC=2NC(=O)N1CC=O</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(=O)N(C)C(=O)C=1N(C(NCCCCCCN)=N)C</t>
+  </si>
+  <si>
+    <t>C=12N(C(=NC=1N(C(=O)N(C)C2=O)C)NCC=3N=C[NH1])C=3C</t>
+  </si>
+  <si>
+    <t>C=12N(CN(C)C2C=1N(C)C(SCC)=NC)OC=O</t>
+  </si>
+  <si>
+    <t>C=1N(C2N(C)CC=1N(C)CSCC(C)C)N2OC</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)NC2C=1N(C)C(SCC)=NC)OCC=O</t>
+  </si>
+  <si>
+    <t>CN(CC=1N(C2=C(N=1)C(=O)N(C(N2C)=O)C)CCC)CC</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)N(C)C(C=1N(C(SCC)=NC2)O)C)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)NC2C=1N(C)C(SCC)=NC)OC=O</t>
+  </si>
+  <si>
+    <t>C=12NC(N(C)C(=O)C=1N(C(SCC)=NC2)OCC)=O</t>
+  </si>
+  <si>
+    <t>C=12NC(=NC=1N(C(=O)N(C)C2=O)C)NCCN=C[NH1]C</t>
+  </si>
+  <si>
+    <t>C=12NCN(C)C(=O)C=1N(C(SCC)=NC2)OCC=O</t>
+  </si>
+  <si>
+    <t>C=12N(CN(C)C2C=1N(C)C(SCC)=NC)OOCC</t>
+  </si>
+  <si>
+    <t>C=12NC(N(C)C(=O)C=1N(C(SCC)=NC2)CC=O)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)N(CC=1N(C)C(SCC)=NC2)O)C=O</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=C(N)NN(C(N1C)=O)C=O</t>
+  </si>
+  <si>
+    <t>CNCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=NC2=C(N1C)N(C(N(C2=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)CC=1N(C)C(NCCCCCN)=N2)=O)OC</t>
+  </si>
+  <si>
+    <t>CN1C(N(C)C(=O)C1NC(NCCCNC(=O)C)=N)=O</t>
+  </si>
+  <si>
+    <t>C=1N(C(N(C)C(C=1N(C)C(NCCCCN)=N)C)=O)O</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)C(C=1N(C)C(NCCCCN)=N2)=O)C)OO</t>
+  </si>
+  <si>
+    <t>C=12N(CN2C(=O)C=1N(C)C(NCCCCCN)=N)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C(SC2=NC=3NC(=O)N(C)C(C=3N2C)=O)C)SCCC1</t>
+  </si>
+  <si>
+    <t>C=12NCN(C)C(C=1N(C)C(NCCCCN)=N2)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)C(C=1N(C)C(NCCCCN)=N2)=O)=O)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(NC(=O)C=1N(C)C(SCC(C)C)=N2)C)OC</t>
+  </si>
+  <si>
+    <t>C=12NC(N(C)C(C=1N(C)C(NCCCCCN)=N2)C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)CC=1N(C)C(SCC(C)C)=N2)=O)OC=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(=O)N(C)C(N3C)=O</t>
+  </si>
+  <si>
+    <t>C=1NC2(SC=1NC3=CC=CC=C3N)CC(N(C(=O)N2C)C)=O</t>
+  </si>
+  <si>
+    <t>C=12NC(SC=1NC3=CC=CC=C3N)CC(N(C(=O)N2)C)C=O</t>
+  </si>
+  <si>
+    <t>C1NC(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(=O)N(C(N3C)=O)C</t>
+  </si>
+  <si>
+    <t>CN1C(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(=O)N(C(N3C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12NC(SC=1NC3=CC=CC=C3N)CC(N(C(=O)N2)CC)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CCCN=[N+1]=[N-1])N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCN=[N+1]=[N-1])N=N4)NC)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(C=CC=C3)[NH1]2)=NC4=C1C(=O)N(C)C(=O)N4C</t>
+  </si>
+  <si>
+    <t>C1NC(N(CCCNC)C)=NC=2C(=O)N(C)C(N(C)C=21)=O</t>
   </si>
   <si>
     <t>CN1C(SC2=NC3=C([NH1]2)C=CC=C3)=NC4=C1C(=O)N(C)C(=O)N4C</t>
   </si>
   <si>
+    <t>CN1C(SC=2SC3=C(C=CC=C3)N=2)=NC4=C1C(=O)N(C)C(=O)N4C</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC(C)C)=NCNC(=O)N1CC=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(SCC(C)C)=NCN(C)C(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1=NC=2C(=O)N(C(=O)N(C)C=2N1)CC</t>
+  </si>
+  <si>
+    <t>C1N(C)C1(NCC=CCCCN=N)CN(C)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC=CCCCN=N)CNC(=O)N1CC</t>
+  </si>
+  <si>
+    <t>CN(C)C1=NC=2C(=O)N(C(=O)N(C)C=2N1C)C</t>
+  </si>
+  <si>
+    <t>C1C(=O)N(C)C(=O)C2=C1N(C(N(CCCNC)C)=N2)C</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC1=O)C=NC=CC(=O)N(C=O)C</t>
+  </si>
+  <si>
+    <t>C12N(C)C(SC=CC=N1)CC(=S)N(C)C2N(C)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC=CCCCN=N)CNC(=O)N(C1=O)CC</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(SC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=C(CN=[N+1]=[N-1])C=CC=C4)N=N3)SC=O)N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(SC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=C(CN=[N+1]=[N-1])C=CC=C4)N=N3)C=O)C(=O)NCC</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=C(CN=[N+1]=[N-1])C=CC=C6)N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=C(CN=[N+1]=[N-1])C=CC=C5)N=N4)SC=O)N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCN2C(CCC2=O)=O)N1C)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCNCCCNCCN)N1CNC(NC)=O)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC2)=C(C=CC=C2)NCC(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC)=NCCN(C)C1=S=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCCN)=NC=1N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C=NCC(=O)N(C(=O)N(C)CN1)CC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC(C)C)=NCN(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(SC)=C1NC=2CN</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC2)=C(C=CC=C2)NCC(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN)=NC=1NC(=O)N2CC=O</t>
+  </si>
+  <si>
+    <t>C1N(CSC2=NC=3N(C)C(=O)N(C)C(=O)C=3N2C)SCCC1</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C)C(=O)C=1N(C)C(NCCNCCN)=N2)=O)C</t>
+  </si>
+  <si>
+    <t>CN(CSC1=NC=2N(C)C(=O)N(C)C(=O)C=2N1C)N3CCCC3</t>
+  </si>
+  <si>
+    <t>C1N(C(SC2=NC=3NC(=O)N(C)C(=O)C=3N2C)C)SCCC1</t>
+  </si>
+  <si>
+    <t>C=1=NC(NC(=O)C=1N(C)CSCC(C)C)=N</t>
+  </si>
+  <si>
+    <t>CN(C=1N(C)C=2N(C(=O)N(C)C(C=2N=1)=O)CC3)CC=CC=C3</t>
+  </si>
+  <si>
+    <t>C=12N(C3(N(C(=O)C=1N(C)C(SCC)=NC3N2)C)C)OC</t>
+  </si>
+  <si>
+    <t>CN1CN(C)C(=O)C=2N(C)C(NCCNCCN)=NC=21</t>
+  </si>
+  <si>
+    <t>C=1N(C(N(C)C(C=1N(C)C(NCCCCN)=N)=O)C)OO</t>
+  </si>
+  <si>
+    <t>CN(C(SC1=NC=2N(C)C(=O)N(C)CC=2N1C)=O)SCCCC</t>
+  </si>
+  <si>
+    <t>CN(CN(C)C(=O)C=1NC(NCCCCCCN)=NC=1)C=O</t>
+  </si>
+  <si>
+    <t>C=12NC(=O)N(C(=O)C=1N(C)C(NCCCNC(=O)C)=N2)C</t>
+  </si>
+  <si>
+    <t>C=1N(CNC(=O)C=1N(C)C(SC(=S)N2CCCC2)=N)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C(=O)C=1N(C)C(NCCCCCCN)=N2)O)C)C</t>
+  </si>
+  <si>
+    <t>C=12N(CN2C(=O)C=1N(C)C(SC(=S)N3CCCC3)=N)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(CN(C(=O)C=1N(C)C(NCCCCCCN)=N2)O)CC</t>
+  </si>
+  <si>
+    <t>C=12N(CN(C(=O)C=1N(C)C(NCCCCNC(C)=O)=N2)C)OC</t>
+  </si>
+  <si>
+    <t>C=12N(CN(C(=O)C=1N(C)C2NCCNCCCNCCN=N)C)OC</t>
+  </si>
+  <si>
+    <t>C=12N(CN2C(=O)C=1N(C)C(SCC(C)C)=NCN)CC=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(=O)N(C(=O)C=1N(C2NCC/N=C3\NC(CS3)=O)C)C)C</t>
+  </si>
+  <si>
+    <t>C=12N(C(N(C(=O)C=1N(C)C(NCCCCCN)=N2)C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(CNC(=O)C=1N(C)C(NCCCCNC(C)=O)=N2)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(CNC(=O)C=1N(C)C(NCCNCCCNCCN)=N2)C=O</t>
+  </si>
+  <si>
+    <t>C=1N(CNC(=O)C=1N(C)C(NCCCCNCCCN)=N)C=O</t>
+  </si>
+  <si>
+    <t>CN(C1)CN(C=2)C(SCCC)=NC=2NC1=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C=2N(C)C(SC)=NC=2N(C1=S)C</t>
+  </si>
+  <si>
+    <t>C1N(C)C=2N(C)C(SC)=NC=2N1C=S</t>
+  </si>
+  <si>
+    <t>C1N(C)CN(C)C(SC)=NCN1C=S</t>
+  </si>
+  <si>
+    <t>C1N(C)CN(C)C(SCCC)=NCN1C</t>
+  </si>
+  <si>
+    <t>CN(C)C=1N(C)C=NC=1N(C(NC)=S)S</t>
+  </si>
+  <si>
+    <t>CN(C)CN(C)C=NCN(C(NC)=S)S</t>
+  </si>
+  <si>
+    <t>C1N(C)CN(C)C(SC)=NCN1C=SC</t>
+  </si>
+  <si>
+    <t>CN(C)CN(C=1)C(SCCC)=NC=1NC</t>
+  </si>
+  <si>
+    <t>CN(C1)CN(C)C=NCN(C(N1C)=S)S</t>
+  </si>
+  <si>
+    <t>CNC(SC(=S)N1CCCC1)=NC2=CC(N(C(=O)N2C)C)=O</t>
+  </si>
+  <si>
+    <t>C1NC(NCCC/N=C2/SCC(N2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=CC=CC=C3S2)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(N1CCCNCCCCNCCCN=N)C2=C1C(N(C(=O)N2C)C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC=2SC3=CC=CC=C3N=2)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC(N2CCCC2)=S)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCNCCCNCCCN)=NC2=C1C(N(C(=O)N2C)C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(N(C)C2=O)=O)C</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(NCCCN2C(=O)C=CC2=O)=NC=1N(C(N(C)C=O)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1NC(=O)N2CC=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1NC(=O)N2CCC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(N3)=O)=NC=1NC(=O)N2CC=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(C(=O)N1CCCNC=3N(C)C4=C(N=3)NC(=O)N(C)C4=O)CC=CC=C2</t>
+  </si>
+  <si>
+    <t>O=C1C=C(C(=O)N1CCNC=2N(C)C3=C(N=2)NC(=O)N(C)C3=O)CC=CC=C</t>
+  </si>
+  <si>
+    <t>O=CC=CN=C(N(C)CCN(C)C=C([N+1]([O-1])=O)/C=C(/C(OC)=O)S)N</t>
+  </si>
+  <si>
+    <t>O=CC=CN=C(N(C)CCN(C)C=C([N+1](=O)[O-1])/C=C(/C(OC)=O)S)N</t>
+  </si>
+  <si>
+    <t>O=CC=C(CSC=1N(C2=C(N=1)N(C)C(N(C2=O)C)=O)CN)CC=CC=C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(C(=O)N1CCNC=2N(C)C3=C(N=2)N(C)CN(C3=O)C)OC=CC=C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=CNCNCC/N=C2\NC(=O)CS2NC(=O)N(C)C1=O)CC</t>
+  </si>
+  <si>
+    <t>O=CC=C(CSC=1N(C)C2=C(N(C)C(N(C2=O)C)=O)N=1)CC=CC=C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCNC2=NC=3N(C)CN(C)C(=O)C=3N2C)OO)C1=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=CNCNCC/N=C2\NC(=O)CS2NC(=O)N(C1=O)C)CC</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=CN(CNCC/N=C2\NC(=O)CS2NC)CN(C)C1=O)OC</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=C(CN=[N+1]=[N-1])C=C6)N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=CC=C(CN=[N+1]=[N-1])C=C5)N=N4)C=O)CCC(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=CC=C(CN=[N+1]=[N-1])C=C4)N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)NCN=C(NCCCNC(=O)CSC(N1CCCC1)=S)NCCN(C)OCCC</t>
+  </si>
+  <si>
+    <t>CNC(=O)NC=1N=C(NCCC2N3C(=O)C4=C(C=CC=C4)C3=O)NC=1CN(C2=O)CCC</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(CN=C(NCCCCN1C(C2=C(C=CC=C2)C1=O)=O)NCCN(C)O)C=O</t>
+  </si>
+  <si>
+    <t>CN1C(N(C)CCCCCCN(C=C(/C=C(/C(OC)=O)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N1CN=C(NCCN2C(=O)C3=C(C=CC=C3)C2)ONC1CN(C)OCCC</t>
+  </si>
+  <si>
+    <t>CNC(=O)NC=1N=C(NCCNC(=O)CSC(N2CCCC2)=S)NC=1CN(C)OCCC</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(CN=C(NCCCCN1C(C2=C(C=CC=C2)C1=O)=O)NC3=CCN(C(=O)N3C)C)O</t>
+  </si>
+  <si>
+    <t>CNC(=O)NCN=C(NCCCN1C(=O)CSC(N2CCCC2)=S)NCCN(C1=O)CCC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(=O)N2C)CC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(=O)N2C)C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(N3)=O)=NC=1N(C)C(=O)N2C=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C)C(N2C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCCCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC=3N(C4=CC=CC=C4N=3)CC5=CN(CCCCCCCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C(NC(=O)C=1N(C)C(NCCNCCN)=N2)C)OC</t>
+  </si>
+  <si>
+    <t>C=12NCN(C)CC=1N(C)C(NCCCCCN)=N2</t>
+  </si>
+  <si>
+    <t>C=12N(C(NC(=O)N(C)C=1N=C2CCNCCNN)C)C=O</t>
+  </si>
+  <si>
+    <t>C=12NCN(C(=O)C=1N(C)C(NCCNCCN)=N2)O</t>
+  </si>
+  <si>
+    <t>C1N(CNC(=O)N(C)C2N=C[NH1]C=C[NH1]C=C2CN1)C=O</t>
+  </si>
+  <si>
+    <t>C1N2CN(C)C(C2N(C)C(NCCCCN)=N1)=O</t>
+  </si>
+  <si>
+    <t>C=12N(CNC(=O)N(C)C=1N=C(CCN=O)C2)OC</t>
+  </si>
+  <si>
+    <t>C=12NC(N(C(=O)C=1N(C)C(NCCNCCN)=N2)C)C</t>
+  </si>
+  <si>
+    <t>C=12N(C(NC(=O)C=1N(C)C(SCC(C)C)=N2)C)OCC</t>
+  </si>
+  <si>
+    <t>CN(CNC(=O)C=1N(C)C(NCCNCCN)=NC=1)C=O</t>
+  </si>
+  <si>
+    <t>C1N(CN1C(=O)C=2N(C)C(NCCCCCCN)=NC=2)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=CN(CNCC/N=C2\NC(=O)CS2NC)CN(C1=O)C)OC</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(C(=O)N1CCNC=3N(C)C4=C(N=3)N(C)CN(C4=O)C)OC=CC=C2</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(C(N1CCNC3=NC=4N(C(N(C)C(=O)C=4N3C)=O)C)=O)C=CC=C2</t>
+  </si>
+  <si>
+    <t>O=CC=C(C(NCCNC=1N(C)C2=C(N=1)N(C)CN(C2=O)C)=O)OCNC=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(CSC=1N(C2=C(N=1)N(C)C(N(C2=O)C)=O)CN)C=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(CSC=1N(C2=C(N=1)N(C)C(N(C2=O)C)=O)N)C=O</t>
+  </si>
+  <si>
+    <t>O=CC=CN=CNCN(C)C1=C(N(C)C(N(C1=O)C)=O)N</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(C(=O)N1CCNC=3N(C)C4=C(N=3)NC(=O)N(C)C4=O)CC=CC=C2</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(NC(NCCCN3C(C4=CC=CC=C4C3=O)=O)=N2)CCN(C1=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(NC(NCCCCN3C(C4=CC=CC=C4C3=O)=O)=N2)CCN(C1=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(C(NCCNC2=NC=3N(C(N(C)C(=O)C=3N2C)=O)C)=O)C1=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCN2C(C3=C(C=CC=C3)C2=O)=O)N1C)N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)CCC=O)N(C1=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)CCC)C(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)CCC=O)N(C1=O)C</t>
+  </si>
+  <si>
+    <t>C=1N(C)C=2N(C)C(=O)N(CC=2SN=1)C=CO</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC(C)C)=NCN(C)C(NC1=O)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC3=NC4=CC=CC=C4S3=N)C=1N(C)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1(SC=CC=N1)C2C=NC(=O)NC(=O)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1(SC=CC=N1)CCNC2=NC3=C(N2C)C(=O)N(C)C3=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCNC(C)=O)N2C)N(C(=O)N1)CC=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCNC(C)=O)N1)CN(C(=O)N(C=O)C)C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N(C(=N1)NCCCCCCNC)C)C(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCCNCCCN)N1C)N(C(=O)N(C=O)C)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCNC(C)=O)N2)CN(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCN2C(C=CC2=O)=O)N1C)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>C=1N2C(=O)N(C)CC=1N(C(NCCCCNCCCN)=N2)C=O</t>
+  </si>
+  <si>
+    <t>C=1N(C(N(C)C(C=1N(C)C(SC(=S)N2CCCC2)=N)=O)C)O</t>
+  </si>
+  <si>
+    <t>C=12NC(=O)N(C(=O)C=1N(C(NCCCNC(=O)C)=N2)CC)C</t>
+  </si>
+  <si>
+    <t>CN(CN(C)C=1NC(N(C)C=1NC)NCC/N=C2/SCCN2)OC=O</t>
+  </si>
+  <si>
+    <t>C=12NC(=O)NC(=O)C=1N(C(NCCCNC(=O)C)=N2)CCC</t>
+  </si>
+  <si>
+    <t>C1NCN(C)C=2N(C(N(C)CCCNC)=NC=2C1=O)OC=O</t>
+  </si>
+  <si>
+    <t>C=1N2C(=O)N(C(C=1N(C)C(NCCCCNCCCN)=N2)=O)C</t>
+  </si>
+  <si>
+    <t>C=1N2C(=O)N(C)C(C=1N(C(NCCCCNCCCN)=N2)C=O)C</t>
+  </si>
+  <si>
+    <t>C=12NC(=O)NC(C=1N(C)CNCCCNC(=O)C)=N2</t>
+  </si>
+  <si>
+    <t>C=12NC(=O)N(C)CC=1N(C)C(NCCCNC(C)=O)=N2</t>
+  </si>
+  <si>
+    <t>CNC1(N(C)C(=O)C=2N(C(NCCCCNCCCN)=NC=21)C=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C=NC=1N(C(=O)N(C)C2=S)C</t>
+  </si>
+  <si>
+    <t>C1N(C)C=NCN(C)C(N(C1=S)C)=S</t>
+  </si>
+  <si>
+    <t>C1N(C)C=NCN(C(=O)N1C)SC</t>
+  </si>
+  <si>
+    <t>CN(C)CN(C=1)C(SCCC)=NC=1NCC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C=NC=1N(C(=S)N(C)C2=S)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C=NCN(C(=O)N1C)C=S</t>
+  </si>
+  <si>
+    <t>C1N(C)C=NCN(C(=O)N1C)SCC</t>
+  </si>
+  <si>
+    <t>CN(C=1)C=NC=2C(=O)N(C)C(N(C)C=2N=1)=O</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(SC3)=C(NC=2CN)C3N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SCC)=NCC(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC1)=C(C=CC=C1)NCC(=O)NC=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SCC(C)C)=NCN(C)C(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1=NC=2C(=O)N(C)C(N(C)C=2N1)=SC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC2)=C(C=CC=C2)NCCN(C)C1</t>
+  </si>
+  <si>
+    <t>CN(C)C(SCC(C)C)=NCN(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>C12N(C=3)C(SC)=C(NC=3CN)C1N(C)C(N2C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N(C(N(CCN(C)C)C)=N2)C)N(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N(C(=N1)NCCCCCCNC)C)CN(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N(C(=N1)NCCCCCCNC)C)CNC(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(NCCCNC(C)=O)NC)N(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(NCCCNC(C)=O)N)CN(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCNC(C)=O)N2C)N(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCN2C(CCC2=O)=O)N1C)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCCCNCCCCNCCCN=N)C1=CC(=O)N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC(=S)N1CCCC1)=NC=CC(N(C)C(=O)NC)=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCCCNCCCCNCCCN=N)C2=C1C(=O)N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCNCCCCNCCCN=N)C=1N(C(=O)N2C)CC</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(NCCCNCCCCNCCCN=N)C=2N(C(=O)N1C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCCCNCCCCNCCCN=N)C1=CC(=O)N(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCCCNCCCCNCCCN=N)C2=C1C(N(C)C(=O)N2C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC(=S)N1CCCC1)=NC2=CC(=O)N(C(=O)N2C)CC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(=O)N3)=NC=1N(C2=O)CC</t>
+  </si>
+  <si>
+    <t>CN(C1)C(SCC(C)C)=NC2=C(N1C)N(C)C(=O)NC2=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCCC/N=C2/SCC(=O)N2)=NCN(C1=O)CC</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(SC(=S)N2CCCC2)=NC=1N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C)C(N2C)=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC2=C[NH1]C=N2)=NCN(C)C(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC=CCCCN=N)C2=C1C(=O)N(C(N2C)=O)C=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC1=C[NH1]C=N1)=NCN(C(=O)NCC)OC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC2=C[NH1]C=N2)=NCN(C(=O)N1CC)OC</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC1=C[NH1]C=N1)=NCN(C)C(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCCC/N=C1/SCC(=O)N1)=NC=CC(=O)N(C=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCNCCCNCCN)N2CNC(=O)N(C1=O)C)C</t>
+  </si>
+  <si>
+    <t>C1N(C=2)C(NCCCNCCCCNCCCN=N)C=2N(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC(=S)N1CCCC1)=NC=CC(=O)N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C)C(N(C2=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC(=S)N1CCCC1)=NC2=CC(=O)N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(SC(=S)N2CCCC2)=NC=1N(C)C(N(C=O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC2=C[NH1]C=N2)=NC=3N(C)C(=O)N(C(=O)C1=3)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C)C2=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N1CN=C(NCCCCN2C(=O)C3=C(C=CC=C3)C2=O)NCCN(C1)OCCC</t>
+  </si>
+  <si>
+    <t>CN(CCNC(=O)CSC(N1CCCC1)=S)CNC2=NC=3N(C(N(C(=O)C=3N2C)C)=O)CCCCN=[N+1]=[N-1]</t>
+  </si>
+  <si>
+    <t>CNC(=O)N1CN=C(NCCCCN2C(C3=C(C2=O)C=CC=C3)=O)NCCN(C1=O)C=O</t>
+  </si>
+  <si>
+    <t>CN(CCNC(=O)CSC(N1CCCC1)=S)CNC2=NC=3N(C(N(C(=O)C=3N2C)C)=O)CCCN=[N+1]=[N-1]</t>
+  </si>
+  <si>
+    <t>CNC(=O)NC=1N=C(NCCCN2C(=O)C3=C(C=CC=C3)C2=O)NC=1CN(CCC)O</t>
+  </si>
+  <si>
+    <t>C=1N(CCNC(=O)CSC(N2CCCC2)=S)CN(C)C3=C(N(C(N(C)C3=O)=O)C)N=1</t>
+  </si>
+  <si>
+    <t>CN(CCNC(=O)CSC(N1CCCC1)=S)CNC2=NC=3N(C(N(C(=O)C=3N2C)C)=O)CC=CC=C</t>
+  </si>
+  <si>
+    <t>CNC(=O)NCN=C(N(C)CCCNC=C([N+1]([O-1])=O)/C=C(\S)C(OC)=O)CNCC=O</t>
+  </si>
+  <si>
+    <t>CNC(NCCCCNC(CSC(N1CCCC1)=S)=O)=NC2=CC(N(C)C(N2C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCCN2C(C3=C(C=CC=C3)C2=O)=O)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(NCCCCNC(CSC(N1CCCC1)=S)=O)=NC2=CC(N(C)C(=O)N2C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCCN2C(=O)C3=CC=CC=C3C2=O)=NC4=C1C(N(C(=O)N4C)C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCN3C(C=CC3=O)=O)N2)CN(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(SC=2[NH1]C3=C(N=2)C=CC=C3)N1C)N(C)C=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCCCN2C(C=CC2=O)=O)N1C)N(C)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC=3[NH1]C4=CC=CC=C4N=3)N2C)N(C(=O)N1C)C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCN2C(C=CC2=O)=O)N1C)N(C)C(=O)NC</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(SC=2[NH1]C3=C(N=2)C=CC=C3)N1C)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC=CCCCN=N)CN(C(=O)N(CC)O)C</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC=CCCCN=N)CN(C(=O)N(C=O)C)C</t>
+  </si>
+  <si>
+    <t>C1N(C2)C1(NCC=CCCCN=N)CN(C)C(=N2)OOC</t>
+  </si>
+  <si>
+    <t>CN(C)C(NCC=CCCCN=N)CN(C(=O)N(C)C=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCC/N=C3/SCC(=O)N3)=NC=1NC2=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SCC(C)C)=NCN(C)C(N(C)C=O)=O</t>
+  </si>
+  <si>
+    <t>C=1N(C)C(SC(=S)N2CCCC2)=NC=1N(C(=O)NCC)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(=O)N(C)C(=O)C=1N(C(NCCN)=N2)CC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC(=S)N3CCCC3)=NC=1N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>C1N(C2)C(SC=C2C)=NC=3N(C)C(=O)N(C)C(C1=3)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC=CCCCN=N)CN(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCCNCCCN)N2C)N(C(=O)N1C)C=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCN2C(CCC2=O)=O)N1C)N(C)C(=O)NC</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(NCCCCN1C(CCC1=O)=O)NC)N(C)C=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC(=S)N1CCCC1)=NC2=CC(=O)N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC2=C[NH1]C=N2)=NC3=C1C(=O)N(C(=O)N3C)C=O</t>
+  </si>
+  <si>
+    <t>C=1N(C)C=2N(C)C(=O)N(CC=2N=1)CNCC/N=C3/SCC(N3)=O</t>
+  </si>
+  <si>
+    <t>CN(C=1)C(SC(=S)N2CCCC2)=NC=1N(C)C(N(C)C=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC2=C[NH1]C=N2)=NC=3N(C)C(=O)N(C(=O)C=31)O</t>
+  </si>
+  <si>
+    <t>C1N(CCC1)CC(=O)N(C)C2=C(N)C(N(C)C(=O)N2)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC2=C[NH1]C=N2)=NC=3N(C)C(=O)N(C(=O)C=31)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(SC(=S)N2CCCC2)=NC=C1C(=O)N(C(=O)NC)C</t>
+  </si>
+  <si>
+    <t>CN(C)C1(NCCCNCCCCNCCCN=N)C2=C1C(=O)N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC2=C[NH1]C=N2)=NC=3N(C)C(=O)N(C(=O)C=31)C</t>
+  </si>
+  <si>
+    <t>CN(C)CC=1N(C2=C(N=1)C(=O)N(C(=O)N2C)C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)C1C=2NC(N(CCCNC)C)=NC=2C(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(C1=NC2=C(N1C)C(=O)N(C(=O)N2C)C)C</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(C1=NC2=C(N1C)N(C)C(=O)N(C2=O)C)C</t>
+  </si>
+  <si>
+    <t>CN(C)CC=1N(C=C(N=1)C(=O)N(C(=O)NC)C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)CCNC1=NC2=C(N1C)N(C)C(N(C)C2=O)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)CC=2N(C3=C(N=2)C(=O)N(C(=O)N3C)C)CC1</t>
+  </si>
+  <si>
+    <t>C12N(C)C=3CN(C)C2(N(C)C=3N1C=O)C=O</t>
+  </si>
+  <si>
+    <t>CN(C)CC=1N(C2=C(N=1)C(=O)N(C(N2C)=O)C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)C1C=2NC(N(C)CCCNC)=NC=2C(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C)CCNC1=NC2=C(N1C)N(C)C(=O)N(C2=O)CC</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(C)C=1N(C)C2=C(N=1)C(=O)N(C(=O)N2C)C</t>
+  </si>
+  <si>
+    <t>C123N(C)C(NCC=CC1=N2)CN(C)C3(O)OC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC=N1)CCN2C(=O)C=CC2=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(SC1=CC=CC=C1)=NCC(=O)N(C=O)C</t>
+  </si>
+  <si>
+    <t>C12N(C)C1(NCC=CCCCN=N)CN(C)C2=O</t>
+  </si>
+  <si>
+    <t>C12N(C)C(SC(=N1)C=CC=C)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(S1C=CC=N1)CCCNC(=S)N2CCCC2N</t>
+  </si>
+  <si>
+    <t>CN(C1)C(SCC(C)C)=NCN(C)C(N(C)C1=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(NC1C=CC=CC1)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC=N1)CC=NC(=O)N(C)C(=O)NCC</t>
+  </si>
+  <si>
+    <t>CN(C)C(S1C=CC=N1)CCCNC(=S)N2CCCC2</t>
+  </si>
+  <si>
+    <t>CN(C)C(SCC(C)C)=NCN(C)C(=O)NC=O</t>
+  </si>
+  <si>
+    <t>CN1CC(=O)N(C)C(C1NCCCCCCNC)C=O</t>
+  </si>
+  <si>
+    <t>CNCCN(C)C1=NC2=C(N1C)N(C(N(C2=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>C1NCCN(C)C(N(CCCCCCNC)C)=NCC(N1)C</t>
+  </si>
+  <si>
+    <t>C=1CN(C)C(=O)N(C)C=1NCCN(C)CC=O</t>
+  </si>
+  <si>
+    <t>C=1N2CCN(C)C(=O)N(C)C=1N2C</t>
+  </si>
+  <si>
+    <t>C1N2CC(=O)N(C)C1C=C2N(CCN(C)C)CN</t>
+  </si>
+  <si>
+    <t>CNC(N1CC2=C[NH1]C=N2)=NC3=C1C(N(C(=O)N3C)C)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(C=CC=C3)S2)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(S2)C=CC=C3)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC=2[NH1]C3=C(C=CC=C3)N=2)=NC4=C1C(N(C)C(N4C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(N(C)CCCNC)=NC1=CN(C(N(C)C1=O)=O)CC</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N(C(=N2)NCCN3C(C4=CC=CC=C4C3=O)=O)C)C(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCN3C(C4=C(C=CC=C4)C3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N=C(NCCN2C(C3=C(C=CC=C3)C2=O)=O)N1C)N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N(C(=N2)NCCCN3C(C4=CC=CC=C4C3=O)=O)C)C(N(C1=O)C)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CNCCNC(CSC(N1CCCC1)=S)=O)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCNC(CSC(=S)N3CCCC3)=O)N2)CN(C(N1C)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(NCCN2C(C3=C(C=CC=C3)C2=O)=O)N1C)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=C(NCCCNC(CSC(N1CCCC1)=S)=O)NC)N(C)C(NC)=O</t>
+  </si>
+  <si>
+    <t>CNCCCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCCCCCCN(C)C1=NC2=C(N1C)N(C(N(C2=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=CC=CC(=C4)CN=[N+1]=[N-1])N=N3)C(NC)=O</t>
+  </si>
+  <si>
+    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=CC=CC(=C5)CN=[N+1]=[N-1])N=N4)N1C)N(C(NC)=O)C</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=CC=CC(=C4)CN=[N+1]=[N-1])N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=C(C=CC=C2)N1CC3=CN(CC4=CC=CC(CN=[N+1]=[N-1])=C4)N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=CC(=C6)CN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC)=NC=1N(C)C(N2C)=S</t>
+  </si>
+  <si>
+    <t>C=12N(C)C=NC=1N(C)C(N(C2=S)C)=S</t>
+  </si>
+  <si>
+    <t>CN(C1)C=NCN(C(=O)N1C)C=SC</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(SC)=NC=1N(C)C(N(C2=O)C)=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C=NCN(C(=O)N(C)C1=S)C</t>
+  </si>
+  <si>
+    <t>CN1C(NCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(NCCNC(CSC(N1CCCC1)=S)=O)=NC2=CC(N(C)C(N2C)=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)C=1NC(NCCCNCCCCNCCCN)=NC=1N(C(NC=O)C=O)C</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(CN(C(NCCN1C(CCC1=O)=O)=NC2=CNC)CN(C)C(N2C)=O)OC</t>
+  </si>
+  <si>
+    <t>CNCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CNCCCCCCN(C)C1=NC2=C(N1C)N(C(N(C2=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>CNCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CC(NCCCCNC1=NC2=C(N1C)CN(C(N2C)=O)C)=O</t>
+  </si>
+  <si>
+    <t>CC(NCCCNC1=NC2=C(N1C)C(N(C(N2C)=O)C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C)C1C(=O)N(C)C(=O)CN(CNCCCCCN)N1C</t>
+  </si>
+  <si>
+    <t>CN1C(N(CCCNC)C)=NC=2C(=O)N(C)C(N(C=21)C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)CC(=O)N(C)C(=O)CN(CNCCCCCN)NC</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C([NH1]2)C=CC=C3)=NC4=C1C(=O)N(C(=O)N4C)C</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(C=CC=C3)[NH1]2)=NC4=C1C(=O)N(C(=O)N4C)C</t>
+  </si>
+  <si>
     <t>CN1C(SC2=NC3=C(S2)C=CC=C3)=NC4=C1C(=O)N(C)C(=O)N4C</t>
   </si>
   <si>
-    <t>CNC=1N(C)C(=NC=1N(C(N(C)C=O)=O)C)NCCCNCCCN</t>
-  </si>
-  <si>
-    <t>CN1C=2N(C)C(=NC=2C(N(C1=O)C)=O)NCCCN3C(CCC3=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(=NC2=C1C(N(C)C(=O)N2C)=O)NCCCNCCCCNCCN</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(CCC3=O)=O)N2)CN(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CNC1=C(N(C)C(=N1)NCCCN2C(C3=CC=CC=C3C2=O)=O)C(\S)CCC=C</t>
-  </si>
-  <si>
-    <t>C1NC(NCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>C1NC2=C(N(C)C(=N2)NCCCCN3C(C=CC3=O)=O)N(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCCNC(C)=O)=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCCNC(=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCCNC(=O)C)=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>C1NC(NCCC/N=C2\NC(=O)CS2)=NC3=C1CN(C)C(N3C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCN2C(C=CC2=O)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN(C)CCN(C1)C(N(C)CCCCCCNC)=NC=C1N(C)C</t>
-  </si>
-  <si>
-    <t>C1NC(NCCC/N=C2\NC(CS2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CNC(NCCCCNC(C)=O)C1=NC2=C(N1C)N(C)C(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCC/N=C2\NC(=O)CS2)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>C1NC(NCCC/N=C2\NC(=O)CS2)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCC/N=C2\NC(=O)CS2)=NC3=C1CN(C)C(N3C)=O</t>
-  </si>
-  <si>
-    <t>CN(C)CCN(C1=NC2=C(N1C)N(C)C(N(C)C2=O)=O)C</t>
-  </si>
-  <si>
-    <t>CN(C)CCN(C=1N(C)C2=C(N=1)C(N(C)C(N2C)=O)=O)C</t>
-  </si>
-  <si>
-    <t>CN(C)CCN(C1=NC2=C(N1C)N(C)C(=O)N(C)C2=O)C</t>
-  </si>
-  <si>
-    <t>CN(C)CCNC=1N(C)C2=C(N=1)C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CNC(N(C)C(C=1N(C(NCCCCCN)=NC=1NC)C)=O)=O</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)CC=1NC(=N)NCCCNC(C)=O)=O)O</t>
-  </si>
-  <si>
-    <t>C=12NC(N(C)C(C=1NC(=N2)NCCCNCCCNC=O)C)=O</t>
-  </si>
-  <si>
-    <t>C=12NC(N(C)C(C=1NC(=N2)NCCCNCCCNC=O)=O)C</t>
-  </si>
-  <si>
-    <t>C=12N(CN2C(=O)C=1N(C)C(N(C)CCCCCNCC)=N)C=O</t>
-  </si>
-  <si>
-    <t>C1NC(N(C)C(C=2N(C(NCCCCCN)=NC=2N1)C)=O)C=O</t>
-  </si>
-  <si>
-    <t>C=12N(CN2C(=O)C=1N(C)C(SC(N3CCCC3)=S)=N)CC</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C)C(C=1NC(=N2)NCC/N=C/SCC=O)N)C=O</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)CC=1NC(=N)NCCCNCCCNC=O)=O)C</t>
-  </si>
-  <si>
-    <t>C=12NC(N(C)C(C=1NC(=N2)N(CCN(C)C)C)C)=O</t>
-  </si>
-  <si>
-    <t>C=12N(CN2C(=O)C=1N(C)C(SC(N3CCCC3)=S)=N)C=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCN=[N+1]=[N-1])C=3NC(=O)N(C=O)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)SC3=NC4=CC=CC=C4[NH1]3</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)CCNC=2N(C)C3=C(N(C)C(=O)N(C)C3=O)N=2</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1C)C=NC=3NC(N(C(C=32)=O)C)C=O</t>
-  </si>
-  <si>
-    <t>C1=NCC1N(C)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCCCN=[N+1]=[N-1])C=3NCC(NC)=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(C=3)CCCCCCCCCCCCNC(=O)NC</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC=3)N=NN(CCCCCN=[N+1]=[N-1])C=3NC4=CC=CC=C4C=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC13C=2CN(C)C(=O)N3C)ON(CCCCCCNC)C</t>
-  </si>
-  <si>
-    <t>C1=2N(C3C1C=2CN(C)C(=O)N3C)OSC(N4CCCC4)=SC</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)N(C)C=O)N(CCCNC)CC</t>
-  </si>
-  <si>
-    <t>C123N(CC1C=C2C)C=4N=NN(CCCCCN=[N+1]=[N-1])C=4CN(CC3=O)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C=O)ON(CCCCCCCCNC)CC</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)CN(C)C2=NC3=C(N(C)C(=O)N(C)C3=O)N2C</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)CCNC=2N(C3=C(N(C)C(N(C3=O)C)=O)N=2)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)OSC(=S)N3CCCC3C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)SC=NC3=CC=CC=C3[NH1]</t>
-  </si>
-  <si>
-    <t>CNCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCN(C)C1=NC2=C(C(N(C(=O)N2C)C)=O)N1C</t>
-  </si>
-  <si>
-    <t>CNCCN(C)C1=NC2=C(N(C(=O)N(C)C2=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNC1CN(C)C(NCCCCCN)C=NCN(C1=O)C</t>
-  </si>
-  <si>
-    <t>CNCCN(C)C1=NC2=C(N(C(=O)N(C2=O)C)C)N1C</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=C(C=C6)CN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=CC(=C6)CN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=CC(CN=[N+1]=[N-1])=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(C=CC3=O)=O)N2)CN(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CCS/C(=N/CCNC=1N(C)C2=C(N(C(=O)N(C2=O)C)C)N=1)OS</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)ONCCCNCCCNC</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)CC=2N=NN(C=2)C(=O)N(C(NC)=O)C</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC=2)N(C)C=3N(C)C(=O)N(C)C(C=3N=2)=O</t>
-  </si>
-  <si>
-    <t>CN(CCCCCC=1CCN)CC=NC=2C(=O)N(C)C(=O)N(C)C=2N=1</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)CNC=2N(C)C3=C(N(C)C(=O)N(C)C3=O)N=2</t>
-  </si>
-  <si>
-    <t>C123N(CC1C=C2C)C=4N=NN(CCCCCN=[N+1]=[N-1])C=4CCC(=O)N3C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CN(C)C(=O)NC)CNCCCCCNCCNC</t>
-  </si>
-  <si>
-    <t>C123N(CC1C=C2C)C=4N=NN(CCCCCN=[N+1]=[N-1])C=4CNC(=O)N3C</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC2)N(C)C=3N(C(N(C(C=3N2)C)O)=O)CC</t>
-  </si>
-  <si>
-    <t>C123N(CC1C=C2C)C=4N=NN(CCCCCN=[N+1]=[N-1])C=4NC3C(C)C</t>
-  </si>
-  <si>
-    <t>C1N(CC1CC)CNC=2N(C=3C(=O)N(C(N(C)C=3N=2)=O)C)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1C=2CC)C=O</t>
-  </si>
-  <si>
-    <t>C1N(C=2C1CC)CN(C)C=NC3=C(N(C)C(=O)N(C)C3=O)N=2</t>
-  </si>
-  <si>
-    <t>C12N(CC1C=C2C)C=3N=NN(C=3)CCCN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C=1N(C)C2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C=1N(C)C2=C(N=1)C(=O)N(C(N2C)=O)C</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C1=NC2=C(N(C(=O)N(C)C2=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C1=NC2=C(N1C)N(C)C(=O)N(C2=O)C</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C1=NC2=C(N(C(=O)N(C2=O)C)C)N1C</t>
-  </si>
-  <si>
-    <t>CN1C=C(N=C1NCCCCCCN)N(C(=O)N(C)C=O)C</t>
-  </si>
-  <si>
-    <t>CN1C=2C(=O)N(C)C(=O)N(C)C=2N=C1NCCCCN</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC(N(C)C=O)C(=O)C(NC)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C=SN(C)C(N)C=O</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3C(=O)N(C)C(=O)NC=3N2</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)CCC2=C(N(C)C(=O)N(C)C2=O)N</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)N(C)C(=O)N(C=3N=2)C</t>
-  </si>
-  <si>
-    <t>C=12N(CCNCCCNCCCN=N)C=1N(C)C(=O)N(C2=O)C</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3C(=O)NC(N(C=32)C)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C=SN(C)C(N)C(=O)NC=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC3=C(N(C)C(=O)N(C)C3=O)N=2</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)CC2=C(C(=O)N(C)C(=O)N2C)ON</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC=2N(C)C(N(C)C(=O)C=2N)C=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NCN(C(N(C=O)C)=O)CCC</t>
-  </si>
-  <si>
-    <t>CN(CCCC1CCNC)N2C=C(N1C)C(=O)N(C)C(N2)C</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CCN(C2=O)C)CCCN(C)C1=O</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCN1C)NC2=C(C(N(C)C(N2C)=O)C)ON1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCC1NC)NC2=C(C(N(C)C(N2C)=O)=O)N1C</t>
-  </si>
-  <si>
-    <t>CN(CCC=1CNCNC)C2=C(C(N(C)C(=O)N2C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C1N(C1SC2=NC3=CN2C)C(=O)N(C)C(N3C)=O</t>
-  </si>
-  <si>
-    <t>C1=NC1SC=NC=CC=CC=C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)N2C=C(N1C)N(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>C=1N(C2=C(N=1)ONC(=O)N(C)C2=O)CC</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NCN(C)CN(C)C(C)=O</t>
-  </si>
-  <si>
-    <t>CN(CCCCCNC=N)C1=C(C(=O)N(C)C(=O)N1C)N</t>
-  </si>
-  <si>
-    <t>CN(CCCCCNC=N)C1=C(C(=O)N(C)C(N1C)=O)C</t>
-  </si>
-  <si>
-    <t>C1(SCNCC2)N=NN(C2=O)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCC2CNCNC)C=C2N(C)C1=O</t>
-  </si>
-  <si>
-    <t>C(NCC=1CCCN)=NC2=C(C(=O)N(C)C(N2C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C1N(CC=2C3CNCNC)C=C3N(C)C=21</t>
-  </si>
-  <si>
-    <t>CN(CC=1C2CNCNC)C=C2N(C)C=1N</t>
-  </si>
-  <si>
-    <t>C1N(CC2C1=O)CCC(N2C)=O</t>
-  </si>
-  <si>
-    <t>CN(CCC1C=2NCNC)C=C1N(C)C=2</t>
-  </si>
-  <si>
-    <t>C(SCNCC1)N=NN(C1=O)C=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC2=N)C=C1N(C)CN(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1N(C2CCCCNC=N)C=C1C(=O)N(C)CN2</t>
-  </si>
-  <si>
-    <t>C(NCCCC1CN)=NC2=C(C(=O)N(C)C(N2C)=O)N1C</t>
-  </si>
-  <si>
-    <t>C=12N(CCCCCNC=N)C=1C(=O)C2=O</t>
-  </si>
-  <si>
-    <t>C1(SCNCC2)N=NN(C2=O)CN(C)C1=O</t>
-  </si>
-  <si>
-    <t>C(SCNC1C=2)N=NN(C=2)C3=CC=CC=C3N1C</t>
-  </si>
-  <si>
-    <t>C(NCCC=1CCN)=NC2=C(C(=O)N(C)C(N2C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC=CC=C2)C=NCN(C)CN(C)C(=O)C1</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC=CC=C2)C=NC=3N(C)C(=O)N(C)C(=O)C1=3</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C)C(=O)N(C)C2=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(C(=O)N(C)C(=O)N2C)N=1</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C)C(N(C2=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)CN(C)C(=O)C=2N</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C)C(N(C)C2=O)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(C=1C2=CC=CC=C2)C=NC=3N(C)CN(C)C(=O)C=3N=1</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)CN(C)C(C=2)=O</t>
-  </si>
-  <si>
-    <t>CN(CCN(C)C1=CNC(=O)N(C1=O)C)CN</t>
-  </si>
-  <si>
-    <t>CN(C1CN(C)C=CC2=C(NNC2=O)C=O)N1CC</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3CN(C)C(N(C=3N=2)C)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC(=O)N(C)C=O</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)CCC=1C(=O)N(C(=O)N(C)C=1N)C</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1CNC)C=O</t>
-  </si>
-  <si>
-    <t>C1N(C=2C=CC1=O)CCC=3C(=O)N(C(=O)N(C)C=3N=2)C</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)N(C)C=2CN(C)C(N(C=2N=1)C)=O</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3CN(C(N(C2=3)C)=O)C</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3C(=O)N(C(=O)N(C)C=32)C</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C(=O)CSC=CC(=O)N(C)C=O</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3CN(C)C(N(C=32)C)=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C(=O)CSC=CCN(C)C=O</t>
-  </si>
-  <si>
-    <t>C1N(C=2C=CC1=O)CC=3CC(=O)N(C(=O)N(C)C=3N=2)C</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)CCC=2CN(C)C(=O)N(C=2N=1)C</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3CN(C)C(N(C=3N2C)C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)C=C(/C=C(/C(OC)=O)S)[N+1](=O)[O-1]</t>
-  </si>
-  <si>
-    <t>C1N(CC1C(=O)N)CCCCNCCCCNC=NCN(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>C12N(CC1N(C)C)CN(C)C=C(/C=C(/C(OC)=O)S)[N+1](=O)N2C</t>
-  </si>
-  <si>
-    <t>C1N(CC1C2=NC=3NC)C(N(C)C(C=3N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1]</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3C(=O)N(C(N(C=32)C)=O)C</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCCCN)CC1=NC2=C(C(=O)N(C)C(=O)N2C)N1C</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)CCC2=C(N(C)C(N(C2=O)C)=O)N</t>
-  </si>
-  <si>
-    <t>C1N(CC1CCCNC)CNC2=NC3=C(C(N(C(=O)N3C)C)=O)N2C</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C=2)C(=O)N(C)C(N(C)C=2)C=C[N+1](O)=O</t>
-  </si>
-  <si>
-    <t>C12N(CC1C=C2C)C=3N=NN(C=3)CCCCCN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)N(C)C(N(C=3N=2)C)=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC1N(C)C=3)C(=O)N(C)C(N(C)C=3N=2)=O</t>
-  </si>
-  <si>
-    <t>C12N(CC1C=C2C)C=CN(CCCCCN=[N+1]=[N-1])N=N</t>
-  </si>
-  <si>
-    <t>CN1C(NCC/N=C2\NC(=O)CS2)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCC/N=C2\NC(CS2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCNCCCCNCCCN)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCC/N=C2\NC(CS2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCC/N=C2\NC(=O)CS2)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=CSC2=NC3=CC=CC=C3N2CC4=CN(CCCC=5CCCCN=[N+1]=[N-1])N=N4)CCC(=O)N(C)C1=5</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=CSC1=NC2=CC=CC=C2N1CC3=CN(CCCCCCCCN=[N+1]=[N-1])N=N3)CCC(=O)NC=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=CSC2=NC3=CC=CC=C3N2CC4=CN(CCCCCCCCN=[N+1]=[N-1])N=N4)CCC(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>O=CC=CCN1C2=CC=CC=C2N=C1SC=3N(C4=C(N(C)C(N(C)C4=O)=O)N=3)CN=NN</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=C(SC1=NC2=CC=CC=C2N1CC3=CN(CCCCCCCCN=[N+1]=[N-1])N=N3)CCC)C(N(C)C=O)=O</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)N)CC)C)N=O</t>
-  </si>
-  <si>
-    <t>C=12N(CNC(=O)C=1NC(=N2)NCCCCCN)CC=O</t>
-  </si>
-  <si>
-    <t>C=12N(C(NC(=O)C=1NC(=N2)NCCCCCN)CC)O</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)S)C)CC=O)O</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)CCN(C)C(=N)S)CC)O)C=O</t>
-  </si>
-  <si>
-    <t>CN(N(C(N(C)C=1N(C)C(=NC=1)NCC)CC)N)OC</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C(=O)C=1NC(=N2)NCCCCCN)CC)O</t>
-  </si>
-  <si>
-    <t>C=12N=C(NCCC)N=NC=1N(C(N(C)C2=O)=O)C</t>
-  </si>
-  <si>
-    <t>CN(CCN(C1)C=CN=N1)CCCCCCN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(N(C(N(C)C2=O)=O)C)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC=1CCCCNC)NC2=C(N(C(=O)N(C)C2=O)C)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC=1N(C)C2=CN(C(=O)N(C2=O)C)C)N=1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCNC)NC1=C(N(C(N(C)C1=O)=O)C)OC</t>
-  </si>
-  <si>
-    <t>CN(CC=1N(C)C2=CN=1)N(C)C(=O)N(C2=O)C</t>
-  </si>
-  <si>
-    <t>C1N(C1SC2=NC3=CN2C)N(C)C(=O)N(C3=O)C</t>
-  </si>
-  <si>
-    <t>CN(CC=1N(C2)C=CN=1)N(C)C(=O)N(C2=O)C</t>
-  </si>
-  <si>
-    <t>C1N(C1S=2C=NC3=CC(N(C)C(=O)N3C)=O)N=2</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)C(=O)N(C)C(=O)C=2</t>
-  </si>
-  <si>
-    <t>C1N(C1S=2C=NC3=CC(N(C)C(N3C)=O)=O)N=2</t>
-  </si>
-  <si>
-    <t>CN(CC=1CCCCNC)NC2=C(N(C)C(N(C2=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C=12N=C(NCCN)N(C=1CN(C2=O)C)OCC=O</t>
-  </si>
-  <si>
-    <t>C1NCC=CC1=SNC2NC=CC(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)N(C(=O)N(C)C=3N=2)C</t>
-  </si>
-  <si>
-    <t>C12N(CC1N=NC=O)N(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>C=1N(CCCCCCCCN)C=NC=2C(=O)N(C(N(C)C=2N=1)=O)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)NC(=O)N(C)C=3N=2</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C2=NC=3N(C)C(N(C(C=3N2C)=O)C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)CCC=2C(=O)N(C(=O)N(C)C=2N)C</t>
-  </si>
-  <si>
-    <t>C1N(CC1CCCNC)CNC2=NC3=C(C(=O)N(C)C(=O)N3C)N2C</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC=2N(C)C(N(C)CC=2N)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(SC(N2CCCC2)=S)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(SC(N2CCCC2)=S)=NC3=C1C(N(C)C(=O)N3C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCCN3C(=O)C=CC3=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
+    <t>C12N(C=3)CC(=O)N(C)C(C=3N1C(NCCN)=N)CC2=O</t>
+  </si>
+  <si>
+    <t>C1N(C)CCCN(C)C2=NC3=C(N(C)C(N(C)C3=O)=O)N2C=C[NH1]1</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C([NH1]2)C=CC=C3)=NC4=C1C(=O)N(C)C(N4C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)C=1CN(C)C2=NC3=C(N(C)C(N(C)C3=O)=O)N2C=C[NH1]C=1</t>
+  </si>
+  <si>
+    <t>CN(C)CCCN(C)C1=NC2=C(N1C)N(C)C(N(C)C2=O)=O</t>
+  </si>
+  <si>
+    <t>CNC(=O)N(C)C(=O)C=CN(CNCCCCCN)NCC=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=CC=CC=C2N1CC3=CN(CCCN=[N+1]=[N-1])N=N3)CCC(NC)=O</t>
   </si>
   <si>
     <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
   </si>
   <si>
-    <t>CN(CC=1CCCCNC)NC2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>C=1N(C2=C(N=1)ONC(=O)N(C)C2=O)CCC</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC=CC=C2)C=NCN(C)CN(C)C(=O)C1=O</t>
-  </si>
-  <si>
-    <t>C123N(C1C=C2CN(C)CN(C)C3=O)OC</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1)C=C(N2C)NN(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCNC1)NC2=C(C(N(C(=O)N2C)C)=O)N1</t>
-  </si>
-  <si>
-    <t>C=1N(CC2=CC=CC=C2)C=NC=3N(C)CN(C)C(=O)C=3N=1</t>
-  </si>
-  <si>
-    <t>CN(CC1=C2C[NH1]C1)CCC=NC3=C(C(=O)N(C)C(N3C)=O)N2</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC[NH1]C1)CC=NC2=C(C(=O)N(C)C(=O)N2C)N</t>
-  </si>
-  <si>
-    <t>CN(C=1CCCCCNC)NC2=C(C(N(C(=O)N2C)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CCCCCCNC)NC1=CN(C(N(C1=O)C)=O)C</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC2=C(C(=O)N(C)C(=O)N2C)N</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)N(C)C2=C(N(C)C(=O)N(C)C2=O)N=1</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)CCC2=C(N(C)C(=O)N(C)C2=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC=CC1=O)N(C)C2=C(C(=O)N(C)C(=O)N2C)N1</t>
-  </si>
-  <si>
-    <t>C1N(C=2C=CCCNCCC3=CC=CC=C3CNC)C=21</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)N(C)C2=C(N(C(=O)N(C)C2=O)C)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC=CC1=O)N(C)C2=C(N(C)C(=O)N(C)C2=O)N1</t>
-  </si>
-  <si>
-    <t>CN(CC1=C2C=CC=C1)CCN(C)C3=C(N(C(=O)N(C)C3=O)C)N2</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)NC2=C(N(C(=O)N(C)C2=O)C)N=1</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC(N(C)C=O)CN(C)CC</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)N(C)C1=C(N(C)C(=O)N(C)C1=O)N</t>
-  </si>
-  <si>
-    <t>C=1N(CC=CC=O)NC2=C(N(C)C(N(C)C2=O)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)CCN=NN(N=N)CC2=CC=CC=C2CN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C1N2CC3=CC2CNCCC4=CC=CC=C4CNC13</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCN(C)C1=NC2=C(N1C)N(C)C(=O)N(C2=O)C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCN(C)C=1N(C)C2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CN1C2=C(C(=O)N(C1=O)C)N(C)C(=N2)NCCCNCCCNC</t>
-  </si>
-  <si>
-    <t>C1(CNC2)N=NN(C2=O)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C2=C1C(=O)N(C)C(C2=O)N</t>
-  </si>
-  <si>
-    <t>C(SCNCC=1)N=NN(C=1)C(CSC2=CC=CC=C2C)=S</t>
-  </si>
-  <si>
-    <t>CN(C1CC2CNCNC)C=C2N(C)C1=S</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1N(C)C3=CC=CC=C3N2</t>
-  </si>
-  <si>
-    <t>C(CNC=1)N(C)C2=C(N=1)C(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1(CNC2)N=NN(C2=O)C(N(C)C1=S)C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C=C1N(C)CNC</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C2=C1CN(C)C2=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(=S)N2CCCC2)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(N2CCCC2)=S)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCCNC(CSC(N3CCCC3)=S)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCN2C(C3=CC=CC=C3C2=O)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(=S)N2CCCC2)=O)N1C)NCNC=O</t>
-  </si>
-  <si>
-    <t>C12N(CC3=CC1C=C34)C(=S)N(C(=O)N4CC=O)CCC2=O</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)N(C(N(C)C=3N=2)=O)C</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC1C=C2)C(=S)N(C(=O)N(C)C=O)CC=O</t>
-  </si>
-  <si>
-    <t>C1N(CC12N=NC3=C2)C(=S)N(C3=O)C=O</t>
-  </si>
-  <si>
-    <t>C12N(CC1CC=3)N(C)C=4N(C)C(N(C)C(C=4N=3)=O)C2=O</t>
-  </si>
-  <si>
-    <t>C1N(CC1N(C)C)CN(C)C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O</t>
-  </si>
-  <si>
-    <t>C1N(CC12N=NC3=C2)C(=S)N(C(=O)N3C)C=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCNC=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCNC=C(/C=C(/C(OC)=O)S)[N+1](=O)[O-1])C=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>C1NC(N(C)CCN(C=C(/C=C(/C(OC)=O)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(=O)N2C)=O</t>
-  </si>
-  <si>
-    <t>CNC(N(C)CCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC1=CC(N(C)C(N1C)=O)=O</t>
-  </si>
-  <si>
-    <t>CNC(SC1=NC2=CC=CC=C2N1CC3=CN(CCCCCCCCN=[N+1]=[N-1])N)=N3</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCNCCCCNCCCN)N1)CN(C(=O)NC)C</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCN2C(C=CC2=O)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC=2SC3=C(N=2)C=CC=C3)N1C)N(C(=O)NC)C</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(S2)C=CC=C3)N1C)N(C(=O)NC)C</t>
-  </si>
-  <si>
-    <t>CN1C=2N(C)C(=NC=2N(C(N1C)=O)C)NCCCNCCCNCCCN</t>
-  </si>
-  <si>
-    <t>CN1C(=NC2=C1C(=O)N(C(N2C)=O)C)NCCN3C(CCC3=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C=2N(C)C(=NC=2C(N(C1=O)C)=O)NCCCNCCCNCCCN</t>
-  </si>
-  <si>
-    <t>CN1C=2N(C)C(=NC=2N(C(N1C)=O)C)NCCCN3C(CCC3=O)=O</t>
-  </si>
-  <si>
-    <t>CN(C1C=CC=O)CCC=2C(=O)N(C)C(=O)N(C)C=21</t>
-  </si>
-  <si>
-    <t>CN(CC=CC=O)CCC=1C(=O)N(C)C(=O)N(C)C=1</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)CC2N=NNC2CCCCN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C1N(CCN2CCCC2=O)C=NCN(C)CN(C)C(C1)=O</t>
-  </si>
-  <si>
-    <t>CN(CC=1N=NN2CCCN=[N+1]=[N-1])C=1C(=O)NCC(C)N(C)C2</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC1=O)CCC=3C(=O)N(C)C(=O)N(C)C=3N2</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC=O)CC=2CC(=O)NC(=O)N(C)C1=2</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=O)N(C)C=2C(=O)N(C)C(=O)N(C)C=2N1</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)C(=O)N(C)C(=O)C=2N</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)CC=2N=NN(C=2)CCCCCCCCN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3C(=O)NC(N(C)C=3N=2)=O</t>
-  </si>
-  <si>
-    <t>CN(CC=CCCNCC=1N=NN(C=1)CCCCC)N=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>C=12NCN(C(=O)C=1N(C(=N2)NCCCNCCCNC)C)O</t>
-  </si>
-  <si>
-    <t>CN(C(N(C(=O)C=1N(C(=NC=1)NCCCNCC)C)N)C)C</t>
-  </si>
-  <si>
-    <t>CN(C(NC(=O)C=1N(C)C(=NC=1)NCCNC)C)C=O</t>
-  </si>
-  <si>
-    <t>CN(CN(C(=O)C=1N(C(=NC=1)NC)CCNCC)C)NCC</t>
-  </si>
-  <si>
-    <t>CN(C(N(C(=O)C=1N(C)C(=NC=1)NCCNCC)C)N)C=O</t>
-  </si>
-  <si>
-    <t>CN(CN1C(=O)CN(C(SC)N(C)CC)C=CNC)C1</t>
-  </si>
-  <si>
-    <t>C=12NCNC(=O)C=1N(C(=N2)NCCCCCCNCC)O</t>
-  </si>
-  <si>
-    <t>C=12NCN(C(=O)C=1N(C(=N2)NCCCCCCNCC)O)C</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1](=O)[O-1])C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCCCCCCN(C=C(/C=C(/C(=O)OC)S)[N+1]([O-1])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1C(=O)N(C)C(=O)C2</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1C(=O)N(C)C2=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C=C1N(C)CN(C)C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCCNC)N2C=C1C(N2C)=S</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C=C1N(C2)CN(C)CN2C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N)C=C1N(C)CN(C)CN=[N+1]=[N-1]</t>
-  </si>
-  <si>
-    <t>CN(CCCCNC=1NC)C2=C(N(C)C(N(C)C2=O)=O)N=1</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC2=N)C=C1CN(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1N(C)C(N2C)=S</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1N(C)C3=CC=CC=C3N2C</t>
-  </si>
-  <si>
-    <t>C1N(CCCCCNC=N2)C=C1CN(C)C(N2C)=S</t>
-  </si>
-  <si>
-    <t>CN(C(N(C)C(C=1N(C(NCC2=C[NH1]C=N2)=NC=1)C)=O)=O)C</t>
-  </si>
-  <si>
-    <t>C=12N(C(N(C)CC=1NC(=N2)NCCCCCCCCNC)C)C=O</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)C(C=1N(C(=N)NCCCCCCNC)C)C)=O)O</t>
-  </si>
-  <si>
-    <t>C=12N(C(N(C)CC=1NC(=N2)NCCCCCCCCCC)C)C</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)C(C=1N(C(=N)NCCCCCCNC)C)=O)C)O</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)CC=1NC(=N)NCCCCCCCCNC)C)OC</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)CC=1NC(=N)NCCCCCCCNCC)C)O</t>
-  </si>
-  <si>
-    <t>C=12NC(=O)N(C(C=1N(C(SCC(C)(C)C)=N2)O)C)C</t>
-  </si>
-  <si>
-    <t>C=12N(C(N(C)C(C=1NC(=N2)N(CCN(C)C)C)C)=O)O</t>
-  </si>
-  <si>
-    <t>C=1N(C(N(C)CC=1NC(=N)NCCCCCCCCNC)C)C=O</t>
-  </si>
-  <si>
-    <t>C=12N(C(=O)N(C(C=1NC(SCC(C)(C)C)=N2)=O)C)C</t>
-  </si>
-  <si>
-    <t>C=12NCN(C)C(C=1N(C(=N2)N(CCN(C)C)C)C=O)=O</t>
-  </si>
-  <si>
-    <t>CN(C1C2=CC=CC=C2)C=NC=3N(C)C(=O)N(C)C(=O)C=31</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC=CC=C2)C=NC=3N(C)CN(C(=O)C1=3)C</t>
-  </si>
-  <si>
-    <t>CN(C=1C2=CC=CC=C2)C=NC=3N(C)C(N(C)C(=O)C=3N=1)=O</t>
-  </si>
-  <si>
-    <t>C=12N(CC3=CC=CC=C3)C(C)CC(=O)C=1N(C)CCN2</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)C=O</t>
-  </si>
-  <si>
-    <t>C1N(CC2=CC=CC=C2)C=NC=3N(C)C(=O)NC(=O)C1=3</t>
-  </si>
-  <si>
-    <t>C#1N(CC2=CC#1)NC2N(C)C(=O)NCC=O</t>
-  </si>
-  <si>
-    <t>CN(CC1=CC=CC=C1)C=NC=2N(C)CN(C)C(=O)C=2</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1)C3=C(C(=O)N(C)C(=O)N3C)C=C2</t>
-  </si>
-  <si>
-    <t>CN(CCN(C)C=C1C=C(NNC)CCOO)C1=O</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)C=SN(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCN2C(CCC2=O)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCN2C(CCC2=O)=O)N1C)N(C)C(=O)NC</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)N1C)NC(=O)N(C)C=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N4)N1C)NC(=O)N(C)C</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=C(CN=[N+1]=[N-1])C=CC=C5)N=N4)N1CN)CCC(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(CC5=C(C=CC=C5)CN=[N+1]=[N-1])N=N4)N1CN)CCC(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(SC2=NC3=C(C=CC=C3)N2CC4=CN(N=N4)CCCCCCCCCCCCN=[N+1]=[N-1])N1CN)CCC(NC)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCCCCCCCCN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=C(CN=[N+1]=[N-1])C=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC(CN=[N+1]=[N-1])=CC=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCN(C)C=1N(C)C2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C=1N(C)C2=C(C(N(C(N2C)=O)C)=O)N=1</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C1=NC2=C(N(C(=O)N(C)C2=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CN1C2=C(C(=O)N(C1=O)C)N(C)C(=N2)NCCCCCNC</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C1=NC2=C(N(C(=O)N(C2=O)C)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C=1N(C)C2=C(N=1)C(=O)N(C)C(N2C)=O</t>
-  </si>
-  <si>
-    <t>CN1C2=C(C(=O)N(C1=O)C)NC(=N2)NCCCCCNC</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)CCC=2C(=O)N(C(=O)N(C)C=2)C</t>
-  </si>
-  <si>
-    <t>C1N(CC=CC1=O)N=NNC(=C)C=CC(=S)NCCCCCCCNC</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCC=3CN(C(N(C2=3)O)C)C</t>
-  </si>
-  <si>
-    <t>C#1N(CC2=CC#1)C=SN(C)C(=O)N(C)C2N(C)CC</t>
-  </si>
-  <si>
-    <t>CN(CCN(C1)C=CN(C)CN(C1=O)C)ONCCCC</t>
-  </si>
-  <si>
-    <t>C#1N(CC=CC#1)NC=2N(C(N(C)C(C=2)=O)=O)C</t>
-  </si>
-  <si>
-    <t>C1=2N(CC=CC1=O)CCC=3CN(C(N(C)C=3N=2)=O)C</t>
-  </si>
-  <si>
-    <t>C12N(CC=CC1=O)CCCCNC(N(C2C=O)C)C</t>
-  </si>
-  <si>
-    <t>O=C1C=C(N=CNCCCCNC(CSC(N2CCCC2)=S)=O)CCC(=O)N1C</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=C(NCCCCNC(CSC(N1CCCC1)=S)=O)NC)N(C)C(=O)NC</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(C4=C(C3=O)C=CC=C4)=O)N2C)N(C)C(=O)N1C</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=CNCCCCNC(CSC(N1CCCC1)=S)=O)CC(=O)N(C=O)C</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(N2CCCC2)=S)=O)NC)NC(=O)N(C1=O)C</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(N2CCCC2)=S)=O)N1C)N(C)C(=O)NC</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(N2CCCC2)=S)=O)N1C)N(C)C(=O)NC=O</t>
-  </si>
-  <si>
-    <t>O=CC=C(N=C(NCCCCNC(CSC(N1CCCC1)=S)=O)NC)N(C)C(=O)NC=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCCNC(CSC(=S)N2CCCC2)=O)N1C)N(C)C(=O)NC</t>
-  </si>
-  <si>
-    <t>C=1N(CN(C(=O)C=1N(C(NC)SCCC)C)C)OC</t>
-  </si>
-  <si>
-    <t>C=12N(C(NC(=O)C=1NC(=N2)NCCCCCC)NC)C=O</t>
-  </si>
-  <si>
-    <t>C=12N(C(N(C(=O)C=1NC(=N2)NCCCCCC)N)C)C=O</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C(=O)C=1N(C(NCCN)=NC2)C)C)OC</t>
-  </si>
-  <si>
-    <t>C=12N(CN(C(=O)C=1NC(=N2)NCCCCCC)NC)C=O</t>
-  </si>
-  <si>
-    <t>C=1N(CN(C(=O)C=1N(C(=N)NCCCCCC)N)C)C=O</t>
-  </si>
-  <si>
-    <t>C=1N2CN(C)CC=1NC(=N2)NCCCCCNC=O</t>
-  </si>
-  <si>
-    <t>C=1N(CN2C(=O)C=1NC(N2C)SC=CC=CC)SC=O</t>
-  </si>
-  <si>
-    <t>C=1N(CN2C(=O)C=1N(C(N2C)SC=CC=CC)N)CC</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=C(CN=[N+1]=[N-1])C=CC=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=C(C=CC=C6)CN=[N+1]=[N-1])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCNC(CSC(N2CCCC2)=S)=O)N1C)N(C)C(NC)=O</t>
-  </si>
-  <si>
-    <t>O=CC1=C(N=C(NCCCNC(CSC(=S)N2CCCC2)=O)N1C)N(C)C(NC)=O</t>
+    <t>O=CC=C(N=CSC1=NC2=CC=CC=C2N1CC3=CN(CCCCCN=[N+1]=[N-1])N=N3)CCC(NC)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=CC=CC=C4N3CC5=CN(CCCN=[N+1]=[N-1])N=N5)N2CNC)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=CC=C(N=CSC1=NC2=CC=CC=C2N1CC3=CN(CCCN=[N+1]=[N-1])N=N3)C(NC)=O</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(NCCCN3C(=O)C=CC3=O)=NC=1N(C(N2C)=O)C</t>
+  </si>
+  <si>
+    <t>C=12N(C)C(=O)N(C)C(=O)C=1N(C(NCCN)=N2)CC=O</t>
+  </si>
+  <si>
+    <t>CN(C1)C(NCC=CCCCN=N)C2=C1C(=O)N(C(=O)N2C)C=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCCC/N=C2/SCC(=O)N2)=NCN(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)C1(NCC=CCCCN=N)CNC(=O)N(C)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)N(C=1)CCN(C)C=1N=CC=O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC1=O)CN(C)C=CN(C)C(=O)NC</t>
+  </si>
+  <si>
+    <t>C1N(C)C(NCC=CCCCN=N)CN(C(=O)N1C)CC</t>
+  </si>
+  <si>
+    <t>CN(C)C1(SC=CC=N1)C=2C=NC(=O)N(C)CC=2O</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC=N1)CCN2C(=O)C3=CC=CC=C3C2</t>
+  </si>
+  <si>
+    <t>CN(C)C1=NC=2C(=O)N(C)C(N(C=2N1C)O)CCCN</t>
+  </si>
+  <si>
+    <t>C1N(C)C(SC=CC1=O)C=NC=CC(=O)N(C)C=O</t>
+  </si>
+  <si>
+    <t>C=1=NC=C(N=1)C=CC=C(CN=[N+1]=[N-1])C=C</t>
+  </si>
+  <si>
+    <t>CN(CCCCCCCCN(C)C=C(/C=C(/C(OC)=O)S)[N+1]([O-1])=O)C1=NC=2N(C)C(N(C)C(C=2N1C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN(CCCCCCN(C=C([N+1]([O-1])=O)/C=C(\S)C(OC)=O)C)C1=NC=2N(C)C(N(C)C(=O)C=2N1C)=O</t>
+  </si>
+  <si>
+    <t>CN(CCCCCCCCN(C)C=C(/C=C(/C(OC)=O)S)[N+1]([O-1])=O)C1=NC=2N(C)C(N(C)C(C=2N1O)C)=O</t>
+  </si>
+  <si>
+    <t>CN(CCCCCCN(C=C([N+1]([O-1])=O)/C=C(\S)C(OC)=O)C)C1=NC=2N(C(N(C)C(=O)C=2N1C)=O)C</t>
+  </si>
+  <si>
+    <t>CN(C=C([N+1]([O-1])=O)/C=C(\S)C(OC)=O)CCN(C)C=1N(C)C2=C(N=1)N(C(=O)N(C)C2=O)CCN=[N+1]=[N-1]</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B418"/>
+  <dimension ref="A1:B402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4844,134 +4796,6 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
-      <c r="A403" s="1">
-        <v>401</v>
-      </c>
-      <c r="B403" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" s="1">
-        <v>402</v>
-      </c>
-      <c r="B404" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" s="1">
-        <v>403</v>
-      </c>
-      <c r="B405" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" s="1">
-        <v>404</v>
-      </c>
-      <c r="B406" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" s="1">
-        <v>405</v>
-      </c>
-      <c r="B407" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" s="1">
-        <v>406</v>
-      </c>
-      <c r="B408" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" s="1">
-        <v>407</v>
-      </c>
-      <c r="B409" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" s="1">
-        <v>408</v>
-      </c>
-      <c r="B410" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" s="1">
-        <v>409</v>
-      </c>
-      <c r="B411" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412" s="1">
-        <v>410</v>
-      </c>
-      <c r="B412" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" s="1">
-        <v>411</v>
-      </c>
-      <c r="B413" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" s="1">
-        <v>412</v>
-      </c>
-      <c r="B414" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" s="1">
-        <v>413</v>
-      </c>
-      <c r="B415" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" s="1">
-        <v>414</v>
-      </c>
-      <c r="B416" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" s="1">
-        <v>415</v>
-      </c>
-      <c r="B417" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" s="1">
-        <v>416</v>
-      </c>
-      <c r="B418" t="s">
-        <v>417</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
